--- a/data/trans_bre/P1403-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1403-Edad-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.08133709187112319</v>
+        <v>-0.1160761029647813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.15309208048278</v>
+        <v>-1.043546838169185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.325486095454336</v>
+        <v>-1.328475608425459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.187565218521134</v>
+        <v>-2.045155190783299</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.526942111990701</v>
+        <v>1.550281195062699</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4553294036752694</v>
+        <v>0.4576121520063664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.701686595965262</v>
+        <v>1.851307003429766</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -744,28 +744,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2845518021828712</v>
+        <v>0.3762037958908003</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6611799033200904</v>
+        <v>-0.6557283329853788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.146244540823793</v>
+        <v>-2.211914816259481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.662663689558053</v>
+        <v>-3.734166489569423</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3464742205539457</v>
+        <v>-0.05855629970692863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5182531757771648</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5257294392664458</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.9119676429195559</v>
+        <v>-0.9575219713296088</v>
       </c>
     </row>
     <row r="9">
@@ -776,26 +774,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.499125991503695</v>
+        <v>2.470181602705003</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.918381805173259</v>
+        <v>1.888889706386788</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009322843544362438</v>
+        <v>0.08001771734895564</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3096460822957919</v>
+        <v>0.3566189776743049</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>3.886122157923117</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.8207936634748396</v>
-      </c>
+        <v>3.584998003305687</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.5861319216726354</v>
+        <v>0.6076355667261706</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +827,7 @@
         <v>-0.2899549642553789</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3856616919801691</v>
+        <v>-0.385661691980169</v>
       </c>
     </row>
     <row r="11">
@@ -842,28 +838,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.59774545223609</v>
+        <v>-0.7938457328748921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.535582653247601</v>
+        <v>-3.838785846915435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.98625595503976</v>
+        <v>-3.043301883312593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.619289915960319</v>
+        <v>-3.457229548146453</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1589339625171455</v>
+        <v>-0.2086088387491387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5856990114544242</v>
+        <v>-0.5969112492714582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6420762388934045</v>
+        <v>-0.641476032668114</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6856120453711498</v>
+        <v>-0.6604504766184235</v>
       </c>
     </row>
     <row r="12">
@@ -874,28 +870,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.350266373601697</v>
+        <v>3.281648888764837</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9983257764118219</v>
+        <v>0.8577120654615489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8906964917384406</v>
+        <v>0.6768385417067081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1428003940782966</v>
+        <v>0.3024956426780644</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.538100908240453</v>
+        <v>1.479327248782151</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2766121971938831</v>
+        <v>0.2399569009515219</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.463392945171799</v>
+        <v>0.3569639095042986</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.08518430630134612</v>
+        <v>0.1350612959213571</v>
       </c>
     </row>
     <row r="13">
@@ -942,28 +938,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.826545756912745</v>
+        <v>-7.324249444131873</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.26081607851869</v>
+        <v>-2.430833787011358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.416448728471861</v>
+        <v>-8.053315881359117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.969993530244074</v>
+        <v>-6.685686394737647</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4407396603155883</v>
+        <v>-0.4401632436471782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1547251323505489</v>
+        <v>-0.1797169623418863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.524696020298378</v>
+        <v>-0.5226585726023502</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3736677139426253</v>
+        <v>-0.3672850948487241</v>
       </c>
     </row>
     <row r="15">
@@ -974,28 +970,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.076447894763849</v>
+        <v>1.259147510745863</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.403126633398273</v>
+        <v>5.617505920323252</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.071115528089048</v>
+        <v>-0.8598302673733214</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.27692691876597</v>
+        <v>-0.07026846647027039</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08709616408749096</v>
+        <v>0.1061312971053735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5222170931525575</v>
+        <v>0.5576055202552394</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07921904658272301</v>
+        <v>-0.07277360189694905</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01190428442982056</v>
+        <v>-0.008263697802192339</v>
       </c>
     </row>
     <row r="16">
@@ -1019,7 +1015,7 @@
         <v>4.529974554858684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.861779284440102</v>
+        <v>-1.861779284440096</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0211496596070321</v>
@@ -1031,7 +1027,7 @@
         <v>0.179702791825712</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.06502119655330539</v>
+        <v>-0.06502119655330522</v>
       </c>
     </row>
     <row r="17">
@@ -1042,28 +1038,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.423857549236954</v>
+        <v>-5.581156761551847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.774208755642338</v>
+        <v>-2.74088414719625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.304498898786064</v>
+        <v>-1.415124751687662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.609410714093143</v>
+        <v>-6.40614260759301</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1606298334443346</v>
+        <v>-0.1637074180775318</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.07007915165254176</v>
+        <v>-0.07169120950998101</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.04788720212515385</v>
+        <v>-0.04897949591673139</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2093002575105341</v>
+        <v>-0.2036271394634747</v>
       </c>
     </row>
     <row r="18">
@@ -1074,28 +1070,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.931728767023685</v>
+        <v>7.568755091406852</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.98887078860762</v>
+        <v>10.45484076352016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.24821319197785</v>
+        <v>10.38654061585126</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.396617310247823</v>
+        <v>2.303493394119516</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2929026300621776</v>
+        <v>0.2767068683593505</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.337100160585945</v>
+        <v>0.3270599933897407</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4577866941335256</v>
+        <v>0.4713933953187152</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.08824918408837734</v>
+        <v>0.08842977460477364</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1115,7 @@
         <v>5.256853938826267</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.277971293110508</v>
+        <v>1.277971293110497</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1818644830877078</v>
@@ -1131,7 +1127,7 @@
         <v>0.1284140610232967</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.02796405666259639</v>
+        <v>0.02796405666259615</v>
       </c>
     </row>
     <row r="20">
@@ -1142,28 +1138,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.569089716484893</v>
+        <v>-0.5492765138222137</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.352492920996268</v>
+        <v>-2.593330741405203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.51905278368791</v>
+        <v>-2.135807976213942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.681648263417306</v>
+        <v>-4.111234391347623</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.01433837582877603</v>
+        <v>-0.01531895547680408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04182962769439247</v>
+        <v>-0.04937634055241286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03358492264452443</v>
+        <v>-0.04784234824813927</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09738299995736859</v>
+        <v>-0.08603357525462992</v>
       </c>
     </row>
     <row r="21">
@@ -1174,28 +1170,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.48354858517726</v>
+        <v>14.71922837514201</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.68091794654092</v>
+        <v>13.45776179575193</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.63175942690481</v>
+        <v>12.82208737814462</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.948171239483186</v>
+        <v>6.603047731587268</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.421366362248992</v>
+        <v>0.4255096676541651</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3178333925606195</v>
+        <v>0.2774923067205196</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3506360832794773</v>
+        <v>0.348172978769431</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.165186468632607</v>
+        <v>0.1535787852952116</v>
       </c>
     </row>
     <row r="22">
@@ -1242,28 +1238,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6404906777065176</v>
+        <v>0.5601846809721562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.07538696482176</v>
+        <v>-2.862826650380442</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.609156897366132</v>
+        <v>-5.222760446152288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.246577802601142</v>
+        <v>4.549789748163207</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01412088808709911</v>
+        <v>0.0104561213130575</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04697625168757751</v>
+        <v>-0.04434201975616635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.08050812099603512</v>
+        <v>-0.09172872273047999</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.07531098181823531</v>
+        <v>0.07830329218572597</v>
       </c>
     </row>
     <row r="24">
@@ -1274,28 +1270,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.01777364377295</v>
+        <v>18.44186092520486</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.88880864189131</v>
+        <v>13.59859008197347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.61968419126494</v>
+        <v>11.58283936350543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.90216662378814</v>
+        <v>15.71972046907213</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4595426795983536</v>
+        <v>0.4466071251254337</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2583970733118101</v>
+        <v>0.2528805686863697</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2340564020752151</v>
+        <v>0.2294223700882399</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3246997832242071</v>
+        <v>0.3122738240968</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1327,7 @@
         <v>0.1722378673115894</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.09399747139938575</v>
+        <v>0.09399747139938576</v>
       </c>
     </row>
     <row r="26">
@@ -1342,28 +1338,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.202730591219993</v>
+        <v>2.169276757580453</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.056481225639992</v>
+        <v>2.159755845677264</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7445226211032067</v>
+        <v>0.7062115568130776</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2400833136683611</v>
+        <v>0.2172202420744843</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1563005771536803</v>
+        <v>0.1533317968438858</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1146978212604576</v>
+        <v>0.122012455989612</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04697340740355318</v>
+        <v>0.04514305995163926</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01233257015255432</v>
+        <v>0.01049610223744662</v>
       </c>
     </row>
     <row r="27">
@@ -1374,28 +1370,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.795334174303458</v>
+        <v>5.574106773837838</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.989172241790971</v>
+        <v>5.99417508352875</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.382938103504975</v>
+        <v>4.245946053473901</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.598245058241568</v>
+        <v>3.489670092871856</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4719192193883515</v>
+        <v>0.4590478550042633</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3787898682834883</v>
+        <v>0.3770538351157062</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3069626436739726</v>
+        <v>0.2945475891325661</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2015208847643288</v>
+        <v>0.19105675621932</v>
       </c>
     </row>
     <row r="28">
